--- a/Documentacion/drafts/20120604/Comparacion de performance en envio y recepcion simple.xlsx
+++ b/Documentacion/drafts/20120604/Comparacion de performance en envio y recepcion simple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
   <si>
     <t>Mensajes</t>
   </si>
@@ -39,16 +39,10 @@
     <t>Socket + XML</t>
   </si>
   <si>
-    <t>Memoria</t>
-  </si>
-  <si>
     <t>Basados en el test T008</t>
   </si>
   <si>
     <t>(en clase: )</t>
-  </si>
-  <si>
-    <t>(en clase: TestComunicacionMinima#en_Memoria_El_Mensaje_Despues_De_Entrega_Debería_Conservar_Su_Identidad)</t>
   </si>
   <si>
     <t>(en clase: TestNodoSocketPerformance#en_Sockets_El_Tiempo_De_Entrega_Normal_Debería_Ser_Menosr_A_1Milisegundo)</t>
@@ -58,6 +52,24 @@
   </si>
   <si>
     <t>Memoria con conjuntos</t>
+  </si>
+  <si>
+    <t>(en clase: TestComunicacionMinima#en_Memoria_El_Tiempo_De_Entrega_Normal_Debería_Ser_Menosr_A_1Milisegundo)</t>
+  </si>
+  <si>
+    <t>(en clase: TestRedA01ConPortal#en_Memoria_El_Tiempo_De_Entrega_Normal_Debería_Ser_Menosr_A_1Milisegundo)</t>
+  </si>
+  <si>
+    <t>Memoria pura</t>
+  </si>
+  <si>
+    <t>MensajeVortex en memoria</t>
+  </si>
+  <si>
+    <t>MensajeVortex en socket</t>
+  </si>
+  <si>
+    <t>MensajeVortex en memoria con ID</t>
   </si>
 </sst>
 </file>
@@ -139,7 +151,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Memoria</c:v>
+                  <c:v>Memoria pura</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -164,15 +176,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NodoSocket!$D$6:$E$6</c:f>
+              <c:f>NodoSocket!$D$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7215.3100459999996</c:v>
+                  <c:v>774.78813700000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138594.18287290048</c:v>
+                  <c:v>129067.54146650028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -183,7 +195,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NodoSocket!$C$11</c:f>
+              <c:f>NodoSocket!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -212,15 +224,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NodoSocket!$D$13:$E$13</c:f>
+              <c:f>NodoSocket!$D$36:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>25181.993801000001</c:v>
+                  <c:v>2336.9048299999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39710.914389959427</c:v>
+                  <c:v>42791.644193743225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NodoSocket!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MensajeVortex en memoria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>NodoSocket!$D$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7023.3166499999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14238.287262756408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -228,10 +271,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>NodoSocket!$C$19</c:f>
+              <c:f>NodoSocket!$C$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -260,30 +303,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NodoSocket!$D$21:$E$21</c:f>
+              <c:f>NodoSocket!$D$44:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>70404.055542999995</c:v>
+                  <c:v>7068.3480719999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14203.72721837366</c:v>
+                  <c:v>14147.577196450209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>NodoSocket!$C$27</c:f>
+              <c:f>NodoSocket!$C$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Memoria con conjuntos</c:v>
+                  <c:v>MensajeVortex en socket</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -292,6 +335,37 @@
           <c:val>
             <c:numRef>
               <c:f>NodoSocket!$D$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>21553.981861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4639.5139721696178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NodoSocket!$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memoria con conjuntos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>NodoSocket!$D$52:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -311,11 +385,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="165531648"/>
-        <c:axId val="165533184"/>
+        <c:axId val="159038080"/>
+        <c:axId val="159048064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165531648"/>
+        <c:axId val="159038080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -324,7 +398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165533184"/>
+        <c:crossAx val="159048064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -332,7 +406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165533184"/>
+        <c:axId val="159048064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -343,7 +417,181 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165531648"/>
+        <c:crossAx val="159038080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NodoSocket!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MensajeVortex en memoria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NodoSocket!$D$12:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ms Totales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>msg/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NodoSocket!$D$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7023.3166499999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14238.287262756408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NodoSocket!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MensajeVortex en socket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NodoSocket!$D$12:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ms Totales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>msg/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NodoSocket!$D$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>21553.981861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4639.5139721696178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="159339264"/>
+        <c:axId val="159340800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="159339264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159340800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159340800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159339264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -371,13 +619,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -392,6 +640,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -687,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G32"/>
+  <dimension ref="C2:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M35:M36"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,15 +983,15 @@
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
@@ -809,10 +1089,10 @@
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
@@ -836,38 +1116,24 @@
       <c r="C13">
         <v>1000000</v>
       </c>
-      <c r="D13">
-        <v>25181.993801000001</v>
-      </c>
-      <c r="E13">
-        <f>1000*C13/D13</f>
-        <v>39710.914389959427</v>
-      </c>
-      <c r="F13">
-        <f>D13/C13</f>
-        <v>2.5181993801000002E-2</v>
-      </c>
-      <c r="G13">
-        <v>770.97039612515198</v>
-      </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>100000</v>
       </c>
       <c r="D14">
-        <v>2336.9048299999999</v>
+        <v>7023.3166499999998</v>
       </c>
       <c r="E14">
         <f>1000*C14/D14</f>
-        <v>42791.644193743225</v>
+        <v>14238.287262756408</v>
       </c>
       <c r="F14">
         <f>D14/C14</f>
-        <v>2.33690483E-2</v>
+        <v>7.0233166499999999E-2</v>
       </c>
       <c r="G14">
-        <v>20.911824075270001</v>
+        <v>3326.8081029906398</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
@@ -875,18 +1141,18 @@
         <v>10000</v>
       </c>
       <c r="D15">
-        <v>424.57463100000001</v>
+        <v>855.42771500000003</v>
       </c>
       <c r="E15">
         <f>1000*C15/D15</f>
-        <v>23552.985199438353</v>
+        <v>11690.058463911237</v>
       </c>
       <c r="F15">
         <f>D15/C15</f>
-        <v>4.2457463100000002E-2</v>
+        <v>8.5542771500000003E-2</v>
       </c>
       <c r="G15">
-        <v>15.4197503586</v>
+        <v>357.78058733339998</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
@@ -894,195 +1160,555 @@
         <v>1000</v>
       </c>
       <c r="D16">
-        <v>198.76883799999999</v>
+        <v>239.529605</v>
       </c>
       <c r="E16">
         <f>1000*C16/D16</f>
-        <v>5030.9696935492475</v>
+        <v>4174.8492842878441</v>
       </c>
       <c r="F16">
         <f>D16/C16</f>
-        <v>0.19876883799999998</v>
+        <v>0.23952960500000001</v>
       </c>
       <c r="G16">
-        <v>14.644642544</v>
+        <v>59.218557122</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>1000000</v>
+      </c>
+      <c r="E20" t="e">
+        <f>1000*C20/D20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20">
+        <f>D20/C20</f>
         <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="D21">
-        <v>70404.055542999995</v>
+        <v>36669.51498</v>
       </c>
       <c r="E21">
         <f>1000*C21/D21</f>
-        <v>14203.72721837366</v>
+        <v>2727.0608857123202</v>
       </c>
       <c r="F21">
         <f>D21/C21</f>
-        <v>7.0404055542999999E-2</v>
+        <v>0.36669514980000001</v>
       </c>
       <c r="G21">
-        <v>313.441359394747</v>
+        <v>24005.0801695962</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="D22">
-        <v>7068.3480719999998</v>
+        <v>943.49672899999996</v>
       </c>
       <c r="E22">
         <f>1000*C22/D22</f>
-        <v>14147.577196450209</v>
+        <v>10598.870873244967</v>
       </c>
       <c r="F22">
         <f>D22/C22</f>
-        <v>7.0683480719999997E-2</v>
+        <v>9.4349672900000001E-2</v>
       </c>
       <c r="G22">
-        <v>154.76080868541999</v>
+        <v>371.70964882669898</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="D23">
-        <v>803.57922599999995</v>
+        <v>201.97874300000001</v>
       </c>
       <c r="E23">
         <f>1000*C23/D23</f>
-        <v>12444.323691364318</v>
+        <v>4951.0160581601403</v>
       </c>
       <c r="F23">
         <f>D23/C23</f>
-        <v>8.0357922599999992E-2</v>
+        <v>0.20197874300000002</v>
       </c>
       <c r="G23">
-        <v>27.266432607299901</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>1000</v>
-      </c>
-      <c r="D24">
-        <v>214.35573500000001</v>
-      </c>
-      <c r="E24">
-        <f>1000*C24/D24</f>
-        <v>4665.1422692282995</v>
-      </c>
-      <c r="F24">
-        <f>D24/C24</f>
-        <v>0.21435573500000002</v>
-      </c>
-      <c r="G24">
-        <v>16.000890890000001</v>
+        <v>70.656949707999999</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>5</v>
+      <c r="C28">
+        <v>1000000</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29">
-        <v>1000000</v>
-      </c>
-      <c r="E29" t="e">
+        <v>100000</v>
+      </c>
+      <c r="D29">
+        <v>21553.981861</v>
+      </c>
+      <c r="E29">
         <f>1000*C29/D29</f>
-        <v>#DIV/0!</v>
+        <v>4639.5139721696178</v>
       </c>
       <c r="F29">
         <f>D29/C29</f>
-        <v>0</v>
+        <v>0.21553981860999999</v>
+      </c>
+      <c r="G29">
+        <v>15673.7990884315</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30">
-        <v>100000</v>
-      </c>
-      <c r="E30" t="e">
+        <v>10000</v>
+      </c>
+      <c r="D30">
+        <v>1827.530874</v>
+      </c>
+      <c r="E30">
         <f>1000*C30/D30</f>
-        <v>#DIV/0!</v>
+        <v>5471.8637820397225</v>
       </c>
       <c r="F30">
         <f>D30/C30</f>
-        <v>0</v>
+        <v>0.18275308740000001</v>
+      </c>
+      <c r="G30">
+        <v>1190.8694713624</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31">
-        <v>10000</v>
-      </c>
-      <c r="E31" t="e">
+        <v>1000</v>
+      </c>
+      <c r="D31">
+        <v>327.243267</v>
+      </c>
+      <c r="E31">
         <f>1000*C31/D31</f>
-        <v>#DIV/0!</v>
+        <v>3055.8306337896329</v>
       </c>
       <c r="F31">
         <f>D31/C31</f>
+        <v>0.327243267</v>
+      </c>
+      <c r="G31">
+        <v>113.376419614</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32">
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1000000</v>
+      </c>
+      <c r="D35">
+        <v>25181.993801000001</v>
+      </c>
+      <c r="E35">
+        <f>1000*C35/D35</f>
+        <v>39710.914389959427</v>
+      </c>
+      <c r="F35">
+        <f>D35/C35</f>
+        <v>2.5181993801000002E-2</v>
+      </c>
+      <c r="G35">
+        <v>770.97039612515198</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>100000</v>
+      </c>
+      <c r="D36">
+        <v>2336.9048299999999</v>
+      </c>
+      <c r="E36">
+        <f>1000*C36/D36</f>
+        <v>42791.644193743225</v>
+      </c>
+      <c r="F36">
+        <f>D36/C36</f>
+        <v>2.33690483E-2</v>
+      </c>
+      <c r="G36">
+        <v>20.911824075270001</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>10000</v>
+      </c>
+      <c r="D37">
+        <v>424.57463100000001</v>
+      </c>
+      <c r="E37">
+        <f>1000*C37/D37</f>
+        <v>23552.985199438353</v>
+      </c>
+      <c r="F37">
+        <f>D37/C37</f>
+        <v>4.2457463100000002E-2</v>
+      </c>
+      <c r="G37">
+        <v>15.4197503586</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38">
         <v>1000</v>
       </c>
-      <c r="E32" t="e">
-        <f>1000*C32/D32</f>
+      <c r="D38">
+        <v>198.76883799999999</v>
+      </c>
+      <c r="E38">
+        <f>1000*C38/D38</f>
+        <v>5030.9696935492475</v>
+      </c>
+      <c r="F38">
+        <f>D38/C38</f>
+        <v>0.19876883799999998</v>
+      </c>
+      <c r="G38">
+        <v>14.644642544</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1000000</v>
+      </c>
+      <c r="D43">
+        <v>70404.055542999995</v>
+      </c>
+      <c r="E43">
+        <f>1000*C43/D43</f>
+        <v>14203.72721837366</v>
+      </c>
+      <c r="F43">
+        <f>D43/C43</f>
+        <v>7.0404055542999999E-2</v>
+      </c>
+      <c r="G43">
+        <v>313.441359394747</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>100000</v>
+      </c>
+      <c r="D44">
+        <v>7068.3480719999998</v>
+      </c>
+      <c r="E44">
+        <f>1000*C44/D44</f>
+        <v>14147.577196450209</v>
+      </c>
+      <c r="F44">
+        <f>D44/C44</f>
+        <v>7.0683480719999997E-2</v>
+      </c>
+      <c r="G44">
+        <v>154.76080868541999</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>10000</v>
+      </c>
+      <c r="D45">
+        <v>803.57922599999995</v>
+      </c>
+      <c r="E45">
+        <f>1000*C45/D45</f>
+        <v>12444.323691364318</v>
+      </c>
+      <c r="F45">
+        <f>D45/C45</f>
+        <v>8.0357922599999992E-2</v>
+      </c>
+      <c r="G45">
+        <v>27.266432607299901</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>1000</v>
+      </c>
+      <c r="D46">
+        <v>214.35573500000001</v>
+      </c>
+      <c r="E46">
+        <f>1000*C46/D46</f>
+        <v>4665.1422692282995</v>
+      </c>
+      <c r="F46">
+        <f>D46/C46</f>
+        <v>0.21435573500000002</v>
+      </c>
+      <c r="G46">
+        <v>16.000890890000001</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1000000</v>
+      </c>
+      <c r="E51" t="e">
+        <f>1000*C51/D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32">
-        <f>D32/C32</f>
+      <c r="F51">
+        <f>D51/C51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>100000</v>
+      </c>
+      <c r="E52" t="e">
+        <f>1000*C52/D52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52">
+        <f>D52/C52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>10000</v>
+      </c>
+      <c r="E53" t="e">
+        <f>1000*C53/D53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53">
+        <f>D53/C53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>1000</v>
+      </c>
+      <c r="E54" t="e">
+        <f>1000*C54/D54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54">
+        <f>D54/C54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>1000000</v>
+      </c>
+      <c r="E59" t="e">
+        <f>1000*C59/D59</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F59">
+        <f>D59/C59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>100000</v>
+      </c>
+      <c r="E60" t="e">
+        <f>1000*C60/D60</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F60">
+        <f>D60/C60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>10000</v>
+      </c>
+      <c r="E61" t="e">
+        <f>1000*C61/D61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F61">
+        <f>D61/C61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>1000</v>
+      </c>
+      <c r="E62" t="e">
+        <f>1000*C62/D62</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F62">
+        <f>D62/C62</f>
         <v>0</v>
       </c>
     </row>

--- a/Documentacion/drafts/20120604/Comparacion de performance en envio y recepcion simple.xlsx
+++ b/Documentacion/drafts/20120604/Comparacion de performance en envio y recepcion simple.xlsx
@@ -339,10 +339,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21553.981861</c:v>
+                  <c:v>12137.010151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4639.5139721696178</c:v>
+                  <c:v>8239.2614619145497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,11 +385,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159038080"/>
-        <c:axId val="159048064"/>
+        <c:axId val="157923968"/>
+        <c:axId val="157933952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159038080"/>
+        <c:axId val="157923968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159048064"/>
+        <c:crossAx val="157933952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -406,7 +406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159048064"/>
+        <c:axId val="157933952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,7 +417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159038080"/>
+        <c:crossAx val="157923968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -541,10 +541,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21553.981861</c:v>
+                  <c:v>12137.010151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4639.5139721696178</c:v>
+                  <c:v>8239.2614619145497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,11 +559,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159339264"/>
-        <c:axId val="159340800"/>
+        <c:axId val="158225152"/>
+        <c:axId val="158226688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159339264"/>
+        <c:axId val="158225152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159340800"/>
+        <c:crossAx val="158226688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -580,7 +580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159340800"/>
+        <c:axId val="158226688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -591,7 +591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159339264"/>
+        <c:crossAx val="158225152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,18 +1217,18 @@
         <v>100000</v>
       </c>
       <c r="D21">
-        <v>36669.51498</v>
+        <v>4222.4483840000003</v>
       </c>
       <c r="E21">
         <f>1000*C21/D21</f>
-        <v>2727.0608857123202</v>
+        <v>23682.941958255087</v>
       </c>
       <c r="F21">
         <f>D21/C21</f>
-        <v>0.36669514980000001</v>
+        <v>4.222448384E-2</v>
       </c>
       <c r="G21">
-        <v>24005.0801695962</v>
+        <v>10.117475170000001</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
@@ -1236,18 +1236,18 @@
         <v>10000</v>
       </c>
       <c r="D22">
-        <v>943.49672899999996</v>
+        <v>452.89974000000001</v>
       </c>
       <c r="E22">
         <f>1000*C22/D22</f>
-        <v>10598.870873244967</v>
+        <v>22079.942019838651</v>
       </c>
       <c r="F22">
         <f>D22/C22</f>
-        <v>9.4349672900000001E-2</v>
+        <v>4.5289974000000004E-2</v>
       </c>
       <c r="G22">
-        <v>371.70964882669898</v>
+        <v>9.5499764860000003</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
@@ -1255,18 +1255,18 @@
         <v>1000</v>
       </c>
       <c r="D23">
-        <v>201.97874300000001</v>
+        <v>98.912851000000003</v>
       </c>
       <c r="E23">
         <f>1000*C23/D23</f>
-        <v>4951.0160581601403</v>
+        <v>10109.90978310796</v>
       </c>
       <c r="F23">
         <f>D23/C23</f>
-        <v>0.20197874300000002</v>
+        <v>9.891285100000001E-2</v>
       </c>
       <c r="G23">
-        <v>70.656949707999999</v>
+        <v>7.3004350889999996</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
@@ -1304,18 +1304,18 @@
         <v>100000</v>
       </c>
       <c r="D29">
-        <v>21553.981861</v>
+        <v>12137.010151</v>
       </c>
       <c r="E29">
         <f>1000*C29/D29</f>
-        <v>4639.5139721696178</v>
+        <v>8239.2614619145497</v>
       </c>
       <c r="F29">
         <f>D29/C29</f>
-        <v>0.21553981860999999</v>
+        <v>0.12137010151000001</v>
       </c>
       <c r="G29">
-        <v>15673.7990884315</v>
+        <v>1834.5638976170601</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
@@ -1323,18 +1323,18 @@
         <v>10000</v>
       </c>
       <c r="D30">
-        <v>1827.530874</v>
+        <v>1583.176633</v>
       </c>
       <c r="E30">
         <f>1000*C30/D30</f>
-        <v>5471.8637820397225</v>
+        <v>6316.4146005937164</v>
       </c>
       <c r="F30">
         <f>D30/C30</f>
-        <v>0.18275308740000001</v>
+        <v>0.15831766329999999</v>
       </c>
       <c r="G30">
-        <v>1190.8694713624</v>
+        <v>268.70276339669999</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
@@ -1342,18 +1342,18 @@
         <v>1000</v>
       </c>
       <c r="D31">
-        <v>327.243267</v>
+        <v>394.179149</v>
       </c>
       <c r="E31">
         <f>1000*C31/D31</f>
-        <v>3055.8306337896329</v>
+        <v>2536.9175476098053</v>
       </c>
       <c r="F31">
         <f>D31/C31</f>
-        <v>0.327243267</v>
+        <v>0.39417914900000001</v>
       </c>
       <c r="G31">
-        <v>113.376419614</v>
+        <v>181.454856963</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
